--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_30_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_30_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118890.5544021179</v>
+        <v>20883102.87118086</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118890.5544021179</v>
+        <v>20883102.87118086</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11293.03753210727</v>
+        <v>1307686.440440024</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11293.03753210727</v>
+        <v>1307686.440440024</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265297237.629157</v>
+        <v>50409903.03397192</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9714.297938615962</v>
+        <v>1072367.584790374</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18801.74553676865</v>
+        <v>2070180.609682628</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27947.68766111919</v>
+        <v>3108776.469985497</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37334.56019490347</v>
+        <v>4111559.357036018</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46465.02362000706</v>
+        <v>5149265.979129934</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>55614.59497762957</v>
+        <v>6184292.976399782</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>64784.91120358644</v>
+        <v>7219319.973671677</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>73811.19961413639</v>
+        <v>8254346.970941353</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83223.36707425545</v>
+        <v>9273725.190653354</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>92306.44069295854</v>
+        <v>10310401.66026735</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>101251.0408964483</v>
+        <v>11343715.71089621</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>109983.1232371307</v>
+        <v>12377270.35856453</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>118874.654584457</v>
+        <v>13410825.00623285</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>128176.160032755</v>
+        <v>14373507.32173511</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>138240.8908715819</v>
+        <v>15232274.43538626</v>
       </c>
     </row>
   </sheetData>
@@ -27055,10 +27055,10 @@
         <v>49.00000000369039</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>319.9999999962519</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
